--- a/temp/pages/ValueSet-EHRDocumentTypeValueset.xlsx
+++ b/temp/pages/ValueSet-EHRDocumentTypeValueset.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://ehrrunner.com/fhir/ValueSet/EHRDocumentType</t>
+    <t>http://br-ipes.com/fhir/ValueSet/EHRDocumentType</t>
   </si>
   <si>
     <t>Version</t>
@@ -102,7 +102,7 @@
     <t>System URI</t>
   </si>
   <si>
-    <t>http://ehrrunner.com/fhir/CodeSystem/EHRDocumentType</t>
+    <t>http://br-ipes.com/fhir/CodeSystem/EHRDocumentType</t>
   </si>
 </sst>
 </file>

--- a/temp/pages/ValueSet-EHRDocumentTypeValueset.xlsx
+++ b/temp/pages/ValueSet-EHRDocumentTypeValueset.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://br-ipes.com/fhir/ValueSet/EHRDocumentType</t>
+    <t>http://br-ipes.com/fhir/ValueSet/EHRDocumentTypeValueset</t>
   </si>
   <si>
     <t>Version</t>
